--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_shwaz_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_shwaz_1_1.xlsx
@@ -3376,7 +3376,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="찰리"]  알았어.
+    <t xml:space="preserve">[name="찰리"]  알겠습니다.
 </t>
   </si>
   <si>
@@ -3392,7 +3392,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="찰리"]  ……알겠어요.
+    <t xml:space="preserve">[name="찰리"]  ……알겠습니다.
 </t>
   </si>
   <si>
@@ -3408,7 +3408,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="허먼"]  아마도.
+    <t xml:space="preserve">[name="허먼"]  그럴 수도.
 </t>
   </si>
   <si>
@@ -3556,7 +3556,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="허먼"]  신도시가 완공되면 수속을 밟은 사람들은 바로 옮겨갈 수 있을 거다.
+    <t xml:space="preserve">[name="허먼"]  신도시가 완공되면 절차를 밟은 사람들은 바로 옮겨갈 수 있을 거다.
 </t>
   </si>
   <si>
@@ -3756,7 +3756,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="슈바르츠"]  나, 나는……
+    <t xml:space="preserve">[name="슈바르츠"]  전……
 </t>
   </si>
   <si>
@@ -3880,7 +3880,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="슈바르츠"]  좋아.
+    <t xml:space="preserve">[name="슈바르츠"]  알겠습니다.
 </t>
   </si>
   <si>
@@ -3892,7 +3892,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="허먼"]  잘 지내.
+    <t xml:space="preserve">[name="허먼"]  잘 살아다오.
 </t>
   </si>
 </sst>
@@ -7740,7 +7740,7 @@
         <v>715</v>
       </c>
       <c r="D249" t="s">
-        <v>957</v>
+        <v>879</v>
       </c>
     </row>
   </sheetData>

--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_shwaz_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_shwaz_1_1.xlsx
@@ -1120,7 +1120,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="シュヴァルツ"]  私はおしゃべりがしたいわけではありませんから。この仕事をするのであれば、口数はむしろ少ない方がいい。あなたの話は多過ぎ。
+    <t xml:space="preserve">[name="シュヴァルツ"]  私はおしゃべりがしたいわけではありませんから。この仕事をするのであれば、口数はむしろ少ない方がいい。あなたの話は多過ぎです。
 </t>
   </si>
   <si>
@@ -1240,7 +1240,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="チャーリー"]  はぁ。しかし、お嬢様もいつの間に、外に働きに出るようになられたのですね。
+    <t xml:space="preserve">[name="チャーリー"]  はぁ。しかし、お嬢様もいつの間にか、外に働きに出るようになられたのですね。
 </t>
   </si>
   <si>
@@ -1688,7 +1688,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ヘルマン"]  ハハハッ、安心しろ。口に出してしまった以上、本気でそんなことをするつもりがなくなったのだよ。
+    <t xml:space="preserve">[name="ヘルマン"]  ハハハッ、安心しろ。口に出してしまったのだから、本気でそんなことをするつもりはもうないさ。
 </t>
   </si>
   <si>
@@ -1704,7 +1704,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="シュヴァルツ"]  お嬢様はそこまで旦那様を嫌われてはおりません。
+    <t xml:space="preserve">[name="シュヴァルツ"]  お嬢様はそこまで旦那様を嫌ってはおりません。
 </t>
   </si>
   <si>
@@ -1724,7 +1724,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ヘルマン"]  腐った親だけが子をそばに縛りつけ、いつまでも支配下にいることを望んでいる。
+    <t xml:space="preserve">[name="ヘルマン"]  腐った親だけが子をそばに縛りつけ、いつまでも支配下におくことを望んでいる。
 </t>
   </si>
   <si>
